--- a/Data.xlsx
+++ b/Data.xlsx
@@ -5,21 +5,30 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arjan\Desktop\Course\Spring2021\CECS550\HW\HW2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Documents\MEGA\CECS550-Homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC8A7C4-E5F5-4611-8583-79D22C0C7B94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A872D3-9ED4-4D18-BE7D-7DF75D00728B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="2055" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="sample data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -403,15 +412,15 @@
   <dimension ref="B1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="8.1796875" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -431,7 +440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>-5.01</v>
       </c>
@@ -466,7 +475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>-5.43</v>
       </c>
@@ -510,7 +519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1.08</v>
       </c>
@@ -551,7 +560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>0.86</v>
       </c>
@@ -592,7 +601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>-2.67</v>
       </c>
@@ -618,7 +627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>4.9400000000000004</v>
       </c>
@@ -662,7 +671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>-2.5099999999999998</v>
       </c>
@@ -703,7 +712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>-2.25</v>
       </c>
@@ -744,7 +753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>5.56</v>
       </c>
@@ -770,7 +779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>1.03</v>
       </c>
@@ -794,7 +803,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>-0.91</v>
       </c>
@@ -815,7 +824,7 @@
         <v>3.2171188269158497E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>1.3</v>
       </c>
@@ -829,7 +838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>-7.75</v>
       </c>
@@ -853,7 +862,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>-5.47</v>
       </c>
@@ -874,7 +883,7 @@
         <v>2.5936805835304983E-3</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>6.14</v>
       </c>
@@ -888,7 +897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>3.6</v>
       </c>
@@ -902,7 +911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>5.37</v>
       </c>
@@ -919,7 +928,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>7.18</v>
       </c>
@@ -936,7 +945,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>-7.39</v>
       </c>
@@ -953,7 +962,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>-7.5</v>
       </c>
@@ -967,7 +976,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>5.35</v>
       </c>
@@ -981,7 +990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>5.12</v>
       </c>
@@ -995,7 +1004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>-1.34</v>
       </c>
@@ -1009,7 +1018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>4.4800000000000004</v>
       </c>
@@ -1023,7 +1032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>7.11</v>
       </c>
@@ -1037,7 +1046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>7.17</v>
       </c>
@@ -1051,7 +1060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>5.75</v>
       </c>
@@ -1065,7 +1074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>0.77</v>
       </c>
@@ -1079,7 +1088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>0.9</v>
       </c>
@@ -1093,7 +1102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>3.52</v>
       </c>
@@ -1119,7 +1128,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
